--- a/diagnostics/results/performance_overview_simulations_CADD_prob.xlsx
+++ b/diagnostics/results/performance_overview_simulations_CADD_prob.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimannheimde-my.sharepoint.com/personal/kooezdem_ad_uni-mannheim_de/Documents/Desktop/Work/Point_Processes/AT-KDE/diagnostics/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimannheimde-my.sharepoint.com/personal/kooezdem_ad_uni-mannheim_de/Documents/Desktop/Work/Point_Processes/Papers/AT-KDE/diagnostics/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_AB5888EF9246E29E6A6D84544D74F6F95753E395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C75AB3AE-4A01-467F-9ADB-ED931297E6A7}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_AB58F6571466E89E6A6D84544D0E7EFA4B61E4CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D6752C9-7398-4AB5-9E84-8A4B7A62DD24}"/>
   <bookViews>
     <workbookView xWindow="28740" yWindow="-16410" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
   <si>
     <t>dataset</t>
   </si>
@@ -40,58 +40,49 @@
     <t>kde_prob</t>
   </si>
   <si>
+    <t>npp_prob</t>
+  </si>
+  <si>
     <t>BPIC20_DomesticDeclarations</t>
   </si>
   <si>
-    <t>9.8348 (0.0)</t>
-  </si>
-  <si>
-    <t>11.3539 (0.0)</t>
-  </si>
-  <si>
-    <t>11.1465 (0.0)</t>
-  </si>
-  <si>
-    <t>6.3907 (0.0)</t>
-  </si>
-  <si>
-    <t>7.2712 (0.0)</t>
-  </si>
-  <si>
-    <t>BPIC20_InternationalDeclarations</t>
-  </si>
-  <si>
-    <t>26.6131 (0.0)</t>
-  </si>
-  <si>
-    <t>30.1243 (0.0)</t>
-  </si>
-  <si>
-    <t>30.3774 (0.0)</t>
-  </si>
-  <si>
-    <t>17.5375 (0.0)</t>
-  </si>
-  <si>
-    <t>16.2614 (0.0)</t>
+    <t>10.3312 (1.7373)</t>
+  </si>
+  <si>
+    <t>10.9499 (1.8006)</t>
+  </si>
+  <si>
+    <t>11.5513 (2.1629)</t>
+  </si>
+  <si>
+    <t>5.9529 (0.3161)</t>
+  </si>
+  <si>
+    <t>6.7063 (0.3028)</t>
+  </si>
+  <si>
+    <t>11.3087 (1.2048)</t>
   </si>
   <si>
     <t>BPIC_2017_W</t>
   </si>
   <si>
-    <t>15.8546 (0.0)</t>
-  </si>
-  <si>
-    <t>16.1206 (0.0)</t>
-  </si>
-  <si>
-    <t>16.222 (0.0)</t>
-  </si>
-  <si>
-    <t>9.473 (0.0)</t>
-  </si>
-  <si>
-    <t>10.2521 (0.0)</t>
+    <t>15.629 (0.4916)</t>
+  </si>
+  <si>
+    <t>15.4821 (0.694)</t>
+  </si>
+  <si>
+    <t>15.4741 (0.5275)</t>
+  </si>
+  <si>
+    <t>9.6526 (0.4168)</t>
+  </si>
+  <si>
+    <t>10.2392 (0.2829)</t>
+  </si>
+  <si>
+    <t>15.565 (0.7602)</t>
   </si>
   <si>
     <t>BPI_Challenge_2012</t>
@@ -100,52 +91,61 @@
     <t>4.8253 (0.0)</t>
   </si>
   <si>
-    <t>4.6082 (0.0)</t>
-  </si>
-  <si>
-    <t>5.0997 (0.0)</t>
-  </si>
-  <si>
-    <t>5.6222 (0.0)</t>
-  </si>
-  <si>
-    <t>4.0054 (0.0)</t>
+    <t>4.9126 (0.3929)</t>
+  </si>
+  <si>
+    <t>5.1233 (0.4609)</t>
+  </si>
+  <si>
+    <t>4.4584 (0.5586)</t>
+  </si>
+  <si>
+    <t>3.8735 (0.4472)</t>
+  </si>
+  <si>
+    <t>5.0796 (0.4563)</t>
   </si>
   <si>
     <t>BPI_Challenge_2012CW</t>
   </si>
   <si>
-    <t>7.0496 (0.0)</t>
-  </si>
-  <si>
-    <t>7.0566 (0.0)</t>
-  </si>
-  <si>
-    <t>7.4181 (0.0)</t>
-  </si>
-  <si>
-    <t>4.2897 (0.0)</t>
-  </si>
-  <si>
-    <t>3.1995 (0.0)</t>
+    <t>6.6096 (0.5789)</t>
+  </si>
+  <si>
+    <t>6.8574 (0.5144)</t>
+  </si>
+  <si>
+    <t>6.8404 (0.6536)</t>
+  </si>
+  <si>
+    <t>4.4714 (0.5533)</t>
+  </si>
+  <si>
+    <t>3.5666 (0.7428)</t>
+  </si>
+  <si>
+    <t>6.7927 (0.3331)</t>
   </si>
   <si>
     <t>BPI_Challenge_2012O</t>
   </si>
   <si>
-    <t>14.8568 (0.0)</t>
-  </si>
-  <si>
-    <t>14.6047 (0.0)</t>
-  </si>
-  <si>
-    <t>14.5177 (0.0)</t>
-  </si>
-  <si>
-    <t>12.9646 (0.0)</t>
-  </si>
-  <si>
-    <t>11.4757 (0.0)</t>
+    <t>14.7513 (0.1739)</t>
+  </si>
+  <si>
+    <t>14.651 (0.2515)</t>
+  </si>
+  <si>
+    <t>14.5537 (0.3128)</t>
+  </si>
+  <si>
+    <t>13.6097 (0.7185)</t>
+  </si>
+  <si>
+    <t>11.5613 (0.2389)</t>
+  </si>
+  <si>
+    <t>14.5937 (0.6502)</t>
   </si>
   <si>
     <t>BPI_Challenge_2012W</t>
@@ -154,52 +154,40 @@
     <t>4.7845 (0.0)</t>
   </si>
   <si>
-    <t>4.7895 (0.0)</t>
-  </si>
-  <si>
-    <t>4.9501 (0.0)</t>
-  </si>
-  <si>
-    <t>5.1859 (0.0)</t>
-  </si>
-  <si>
-    <t>5.3728 (0.0)</t>
+    <t>4.5753 (0.4473)</t>
+  </si>
+  <si>
+    <t>4.7553 (0.82)</t>
+  </si>
+  <si>
+    <t>5.0731 (0.4748)</t>
+  </si>
+  <si>
+    <t>4.9303 (0.4093)</t>
+  </si>
+  <si>
+    <t>4.475 (0.748)</t>
   </si>
   <si>
     <t>BPI_Challenge_2013C</t>
   </si>
   <si>
-    <t>62.4699 (0.0)</t>
-  </si>
-  <si>
-    <t>64.4329 (0.0)</t>
-  </si>
-  <si>
-    <t>78.5417 (0.0)</t>
-  </si>
-  <si>
-    <t>14.0794 (0.0)</t>
-  </si>
-  <si>
-    <t>12.9689 (0.0)</t>
-  </si>
-  <si>
-    <t>BPI_Challenge_2019</t>
-  </si>
-  <si>
-    <t>299.0397 (0.0)</t>
-  </si>
-  <si>
-    <t>287.1584 (0.0)</t>
-  </si>
-  <si>
-    <t>297.2733 (0.0)</t>
-  </si>
-  <si>
-    <t>17.738 (0.0)</t>
-  </si>
-  <si>
-    <t>17.5278 (0.0)</t>
+    <t>66.2233 (3.124)</t>
+  </si>
+  <si>
+    <t>67.9242 (5.2746)</t>
+  </si>
+  <si>
+    <t>66.6451 (1.8749)</t>
+  </si>
+  <si>
+    <t>13.9847 (0.1627)</t>
+  </si>
+  <si>
+    <t>13.0964 (0.3427)</t>
+  </si>
+  <si>
+    <t>68.6962 (4.4221)</t>
   </si>
   <si>
     <t>Confidential_1000</t>
@@ -208,16 +196,19 @@
     <t>12.5365 (0.0)</t>
   </si>
   <si>
-    <t>12.764 (0.0)</t>
-  </si>
-  <si>
-    <t>12.5734 (0.0)</t>
-  </si>
-  <si>
-    <t>6.6939 (0.0)</t>
-  </si>
-  <si>
-    <t>4.9409 (0.0)</t>
+    <t>12.5705 (0.6137)</t>
+  </si>
+  <si>
+    <t>12.2511 (0.5836)</t>
+  </si>
+  <si>
+    <t>6.262 (0.3737)</t>
+  </si>
+  <si>
+    <t>5.5671 (0.7267)</t>
+  </si>
+  <si>
+    <t>12.1632 (0.4381)</t>
   </si>
   <si>
     <t>Confidential_2000</t>
@@ -226,34 +217,40 @@
     <t>18.2314 (0.0)</t>
   </si>
   <si>
-    <t>16.9654 (0.0)</t>
-  </si>
-  <si>
-    <t>18.2909 (0.0)</t>
-  </si>
-  <si>
-    <t>9.8412 (0.0)</t>
-  </si>
-  <si>
-    <t>7.3734 (0.0)</t>
+    <t>18.4209 (1.1238)</t>
+  </si>
+  <si>
+    <t>17.9724 (0.4385)</t>
+  </si>
+  <si>
+    <t>9.861 (0.353)</t>
+  </si>
+  <si>
+    <t>6.1372 (1.2507)</t>
+  </si>
+  <si>
+    <t>18.2967 (0.771)</t>
   </si>
   <si>
     <t>ConsultaDataMining</t>
   </si>
   <si>
-    <t>9.0641 (0.0)</t>
-  </si>
-  <si>
-    <t>8.7398 (0.0)</t>
-  </si>
-  <si>
-    <t>10.9994 (0.0)</t>
-  </si>
-  <si>
-    <t>7.3237 (0.0)</t>
-  </si>
-  <si>
-    <t>6.0058 (0.0)</t>
+    <t>9.4795 (1.1299)</t>
+  </si>
+  <si>
+    <t>9.9866 (1.5668)</t>
+  </si>
+  <si>
+    <t>9.6328 (0.8282)</t>
+  </si>
+  <si>
+    <t>6.7984 (1.2473)</t>
+  </si>
+  <si>
+    <t>7.2901 (0.7505)</t>
+  </si>
+  <si>
+    <t>8.7834 (1.2838)</t>
   </si>
   <si>
     <t>cvs_pharmacy</t>
@@ -262,52 +259,61 @@
     <t>8.9669 (0.0)</t>
   </si>
   <si>
-    <t>9.2076 (0.0)</t>
-  </si>
-  <si>
-    <t>9.0695 (0.0)</t>
-  </si>
-  <si>
-    <t>6.754 (0.0)</t>
-  </si>
-  <si>
-    <t>3.793 (0.0)</t>
+    <t>8.9066 (0.1523)</t>
+  </si>
+  <si>
+    <t>9.024 (0.0883)</t>
+  </si>
+  <si>
+    <t>6.9665 (0.1426)</t>
+  </si>
+  <si>
+    <t>3.54 (0.308)</t>
+  </si>
+  <si>
+    <t>9.0883 (0.1275)</t>
   </si>
   <si>
     <t>env_permit</t>
   </si>
   <si>
-    <t>31.7023 (0.0)</t>
-  </si>
-  <si>
-    <t>32.7937 (0.0)</t>
-  </si>
-  <si>
-    <t>33.1945 (0.0)</t>
-  </si>
-  <si>
-    <t>19.0862 (0.0)</t>
-  </si>
-  <si>
-    <t>14.0441 (0.0)</t>
+    <t>33.4731 (1.137)</t>
+  </si>
+  <si>
+    <t>32.502 (1.6159)</t>
+  </si>
+  <si>
+    <t>31.9902 (2.0287)</t>
+  </si>
+  <si>
+    <t>17.9737 (0.9248)</t>
+  </si>
+  <si>
+    <t>14.0653 (0.919)</t>
+  </si>
+  <si>
+    <t>31.7589 (1.5308)</t>
   </si>
   <si>
     <t>HelpDesk</t>
   </si>
   <si>
-    <t>55.4773 (0.0)</t>
-  </si>
-  <si>
-    <t>55.7516 (0.0)</t>
-  </si>
-  <si>
-    <t>55.2278 (0.0)</t>
-  </si>
-  <si>
-    <t>22.9315 (0.0)</t>
-  </si>
-  <si>
-    <t>19.4592 (0.0)</t>
+    <t>55.6878 (0.8742)</t>
+  </si>
+  <si>
+    <t>56.248 (0.8089)</t>
+  </si>
+  <si>
+    <t>56.147 (0.6033)</t>
+  </si>
+  <si>
+    <t>23.2797 (0.577)</t>
+  </si>
+  <si>
+    <t>19.2854 (0.5874)</t>
+  </si>
+  <si>
+    <t>55.6135 (1.14)</t>
   </si>
   <si>
     <t>Hospital</t>
@@ -316,88 +322,103 @@
     <t>22.584 (0.0)</t>
   </si>
   <si>
-    <t>22.6611 (0.0)</t>
-  </si>
-  <si>
-    <t>23.1329 (0.0)</t>
-  </si>
-  <si>
-    <t>16.212 (0.0)</t>
-  </si>
-  <si>
-    <t>22.8803 (0.0)</t>
+    <t>22.4718 (0.2004)</t>
+  </si>
+  <si>
+    <t>22.4454 (0.5353)</t>
+  </si>
+  <si>
+    <t>15.8887 (0.2609)</t>
+  </si>
+  <si>
+    <t>22.6783 (0.2172)</t>
+  </si>
+  <si>
+    <t>22.5602 (0.1424)</t>
   </si>
   <si>
     <t>P2P</t>
   </si>
   <si>
-    <t>12.9893 (0.0)</t>
-  </si>
-  <si>
-    <t>13.3563 (0.0)</t>
-  </si>
-  <si>
-    <t>12.687 (0.0)</t>
-  </si>
-  <si>
-    <t>9.5877 (0.0)</t>
-  </si>
-  <si>
-    <t>13.2859 (0.0)</t>
+    <t>25.2725 (1.2615)</t>
+  </si>
+  <si>
+    <t>25.3131 (1.3961)</t>
+  </si>
+  <si>
+    <t>25.9068 (0.8956)</t>
+  </si>
+  <si>
+    <t>22.6469 (1.4558)</t>
+  </si>
+  <si>
+    <t>12.8655 (0.5786)</t>
+  </si>
+  <si>
+    <t>13.0472 (1.1062)</t>
   </si>
   <si>
     <t>PermitLog</t>
   </si>
   <si>
-    <t>21.8976 (0.0)</t>
-  </si>
-  <si>
-    <t>23.4962 (0.0)</t>
-  </si>
-  <si>
-    <t>24.7088 (0.0)</t>
-  </si>
-  <si>
-    <t>14.3662 (0.0)</t>
-  </si>
-  <si>
-    <t>14.2954 (0.0)</t>
+    <t>24.9294 (1.3515)</t>
+  </si>
+  <si>
+    <t>24.9468 (2.1075)</t>
+  </si>
+  <si>
+    <t>24.4716 (1.5381)</t>
+  </si>
+  <si>
+    <t>15.0756 (0.3139)</t>
+  </si>
+  <si>
+    <t>14.1894 (0.3657)</t>
+  </si>
+  <si>
+    <t>25.1356 (1.1395)</t>
   </si>
   <si>
     <t>Production</t>
   </si>
   <si>
-    <t>8.5837 (0.0)</t>
-  </si>
-  <si>
-    <t>10.123 (0.0)</t>
-  </si>
-  <si>
-    <t>7.7945 (0.0)</t>
-  </si>
-  <si>
-    <t>11.8789 (0.0)</t>
-  </si>
-  <si>
-    <t>5.6789 (0.0)</t>
+    <t>9.0471 (0.7039)</t>
+  </si>
+  <si>
+    <t>8.5135 (0.8861)</t>
+  </si>
+  <si>
+    <t>8.4635 (1.2638)</t>
+  </si>
+  <si>
+    <t>10.6517 (1.5212)</t>
+  </si>
+  <si>
+    <t>6.6367 (0.8644)</t>
+  </si>
+  <si>
+    <t>8.974 (1.1962)</t>
   </si>
   <si>
     <t>Sepsis</t>
   </si>
   <si>
-    <t>19.4521 (0.0)</t>
-  </si>
-  <si>
-    <t>22.8853 (0.0)</t>
-  </si>
-  <si>
-    <t>21.5381 (0.0)</t>
-  </si>
-  <si>
-    <t>16.2621 (0.0)</t>
-  </si>
-  <si>
-    <t>15.2198 (0.0)</t>
+    <t>20.9652 (1.311)</t>
+  </si>
+  <si>
+    <t>20.7517 (0.9056)</t>
+  </si>
+  <si>
+    <t>21.5474 (1.4146)</t>
+  </si>
+  <si>
+    <t>15.5954 (0.398)</t>
+  </si>
+  <si>
+    <t>15.8474 (1.5519)</t>
+  </si>
+  <si>
+    <t>20.8554 (1.5298)</t>
   </si>
 </sst>
 </file>
@@ -744,19 +765,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,405 +799,428 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
